--- a/src/Components/Navbar/templates/28daysTemplate.xlsx
+++ b/src/Components/Navbar/templates/28daysTemplate.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>emp_id</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>division</t>
   </si>
 </sst>
 </file>
@@ -25,10 +31,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -40,7 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -53,6 +59,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -61,13 +90,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -78,15 +100,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,14 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -141,14 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +169,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -170,14 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,11 +392,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,17 +444,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,21 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -469,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,10 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -506,130 +512,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -646,7 +652,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,107 +974,115 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="28" width="4.85714285714286" style="1" customWidth="1"/>
-    <col min="29" max="29" width="4.71428571428571" style="1" customWidth="1"/>
-    <col min="30" max="16381" width="6.14285714285714" style="1" customWidth="1"/>
-    <col min="16382" max="16384" width="6.14285714285714" style="1"/>
+    <col min="2" max="2" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.57142857142857" style="1" customWidth="1"/>
+    <col min="4" max="30" width="4.85714285714286" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.71428571428571" style="1" customWidth="1"/>
+    <col min="32" max="16383" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="6.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="H1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="I1" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="K1" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="L1" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="M1" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="P1" s="4">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="S1" s="4">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="T1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="U1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="4">
+      <c r="V1" s="4">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="W1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="X1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="4">
+      <c r="Y1" s="4">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Z1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AA1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="AB1" s="4">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AC1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AD1" s="4">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AE1" s="1">
         <v>28</v>
       </c>
     </row>
